--- a/PatternObjectModel/data/TC005.xlsx
+++ b/PatternObjectModel/data/TC005.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PatternObjectModel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICKY\git\PatternObjectModel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,12 +425,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
